--- a/RPA/Order.xlsx
+++ b/RPA/Order.xlsx
@@ -5,10 +5,10 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deloitte\Prototype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deloitte\Prototype\RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50BC4E6-0485-428F-9F2E-DB3D6A60B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C678EF-E50A-48BE-8E4A-C9AB63EC075A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -31,67 +31,13 @@
     <x:t>text</x:t>
   </x:si>
   <x:si>
-    <x:t>"Vedant Mahajan" &lt;notifications@github.com&gt;</x:t>
+    <x:t>kumarshresth2004@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>[KumarShresth7/EmailAutomation] Dashboard (PR #1)</x:t>
+    <x:t>Order Error</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">
-You can view, comment on, or merge this pull request online at:
-  https://github.com/KumarShresth7/EmailAutomation/pull/1
--- Commit Summary --
-  * Dashboard
-  * Merge branch &amp;#39;main&amp;#39; of https://github.com/KumarShresth7/EmailAutomation
-  * UI Fixed
-  * UI Fixed
-  * All UI Fixed
--- File Changes --
-    A client/.gitignore (41)
-    A client/README.md (36)
-    A client/components.json (21)
-    A client/eslint.config.mjs (16)
-    A client/next.config.ts (7)
-    A client/package-lock.json (6784)
-    A client/package.json (40)
-    A client/postcss.config.mjs (8)
-    A client/public/file.svg (1)
-    A client/public/globe.svg (1)
-    A client/public/next.svg (1)
-    A client/public/vercel.svg (1)
-    A client/public/window.svg (1)
-    A client/src/app/favicon.ico (0)
-    A client/src/app/globals.css (88)
-    A client/src/app/layout.tsx (34)
-    A client/src/app/page.tsx (9)
-    A client/src/components/dashboard-shell.tsx (97)
-    A client/src/components/data-table.tsx (249)
-    A client/src/components/new-contact-dialog.tsx (120)
-    A client/src/components/ui/avatar.tsx (50)
-    A client/src/components/ui/button.tsx (57)
-    A client/src/components/ui/dialog.tsx (122)
-    A client/src/components/ui/dropdown-menu.tsx (201)
-    A client/src/components/ui/input.tsx (22)
-    A client/src/components/ui/label.tsx (26)
-    A client/src/components/ui/select.tsx (159)
-    A client/src/components/ui/separator.tsx (31)
-    A client/src/components/ui/sheet.tsx (140)
-    A client/src/components/ui/sidebar.tsx (763)
-    A client/src/components/ui/skeleton.tsx (15)
-    A client/src/components/ui/tooltip.tsx (32)
-    A client/src/hooks/use-mobile.tsx (19)
-    A client/src/lib/utils.ts (6)
-    A client/tailwind.config.ts (72)
-    A client/tsconfig.json (27)
--- Patch Links --
-https://github.com/KumarShresth7/EmailAutomation/pull/1.patch
-https://github.com/KumarShresth7/EmailAutomation/pull/1.diff
--- 
-Reply to this email directly or view it on GitHub:
-https://github.com/KumarShresth7/EmailAutomation/pull/1
-You are receiving this because you are subscribed to this thread.
-Message ID: &amp;lt;KumarShresth7/EmailAutomation/pull/1@github.com&amp;gt;
-</x:t>
+    <x:t>Error processing order: [{'product': 'iPhone 15', 'requested': 3, 'available': 2}, {'product': 'Macbook Pro', 'requested': 2, 'available': 0}]</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -426,9 +372,7 @@
   </x:sheetPr>
   <x:dimension ref="C2:C3"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C2" sqref="C2 A1:E4"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
@@ -449,7 +393,7 @@
       <x:c r="B2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>

--- a/RPA/Order.xlsx
+++ b/RPA/Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deloitte\Prototype\RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C678EF-E50A-48BE-8E4A-C9AB63EC075A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDA2FEA-8D5D-4D3D-9766-01EF117DFCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -31,13 +31,15 @@
     <x:t>text</x:t>
   </x:si>
   <x:si>
-    <x:t>kumarshresth2004@gmail.com</x:t>
+    <x:t>"Deepesh Gavali" &lt;deepzgavali143@gmail.com&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>Order Error</x:t>
+    <x:t>Order</x:t>
   </x:si>
   <x:si>
-    <x:t>Error processing order: [{'product': 'iPhone 15', 'requested': 3, 'available': 2}, {'product': 'Macbook Pro', 'requested': 2, 'available': 0}]</x:t>
+    <x:t xml:space="preserve">Hello
+I would like to order 2 MacBook and 1 iPhone
+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -370,7 +372,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="C2:C3"/>
+  <x:dimension ref="C3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -386,14 +388,14 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>

--- a/RPA/Order.xlsx
+++ b/RPA/Order.xlsx
@@ -28,17 +28,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Deepesh Gavali" &lt;deepzgavali143@gmail.com&gt;</x:t>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Kumar Shresth" &lt;kshresth_be22@thapar.edu&gt;</x:t>
   </x:si>
   <x:si>
     <x:t>Order</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Hello
-I would like to order 2 MacBook and 1 iPhone
+    <x:t xml:space="preserve">New order of IPhone 15
 </x:t>
   </x:si>
 </x:sst>
@@ -387,16 +392,22 @@
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/RPA/Order.xlsx
+++ b/RPA/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deloitte\Prototype\RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDA2FEA-8D5D-4D3D-9766-01EF117DFCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06337D6D-A102-4AA5-BA92-6B9AA47FB840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9420" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
     <x:t>"Kumar Shresth" &lt;kshresth_be22@thapar.edu&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">New order of IPhone 15
+    <x:t>Order50</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">iPhone,quantity:2
 </x:t>
   </x:si>
 </x:sst>
@@ -377,9 +377,11 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="C3"/>
+  <x:dimension ref="A1:C3"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C2" sqref="C2"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
@@ -388,7 +390,7 @@
     <x:col min="3" max="3" width="45.554688" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -399,7 +401,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -410,7 +412,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:3" ht="409.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="C3" s="1"/>
     </x:row>
   </x:sheetData>

--- a/RPA/Order.xlsx
+++ b/RPA/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deloitte\Prototype\RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06337D6D-A102-4AA5-BA92-6B9AA47FB840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8D0A7C-25DD-4899-9196-8AC47F092E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9420" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
     <x:t>"Kumar Shresth" &lt;kshresth_be22@thapar.edu&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>Order50</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">iPhone,quantity:2
+    <x:t>My Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Samsung, Quantity
 </x:t>
   </x:si>
 </x:sst>

--- a/RPA/Order.xlsx
+++ b/RPA/Order.xlsx
@@ -37,14 +37,24 @@
     <x:t>Body</x:t>
   </x:si>
   <x:si>
-    <x:t>"Kumar Shresth" &lt;kshresth_be22@thapar.edu&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>My Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Samsung, Quantity
-</x:t>
+    <x:t>"LinkedIn" &lt;messages-noreply@linkedin.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34 people noticed you</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Your profile is looking great
+Your work and accomplishments are being recognized
+34 profile views
+          https://www.linkedin.com/comm/me/profile-views?lipi=urn%3Ali%3Apage%3Aemail_b2_professional_identity_digest_02%3Bt2WWjaCfTXKLn%2F1WY7R0uA%3D%3D&amp;midToken=AQHfy-KX1wg9GQ&amp;midSig=21KYzun0QpnHE1&amp;trk=eml-b2_professional_identity_digest_02-email~professional~identity~digest-0-profile~views&amp;trkEmail=eml-b2_professional_identity_digest_02-email~professional~identity~digest-0-profile~views-null-bbr33j~m73hmy0d~ml-null-null&amp;eid=bbr33j-m73hmy0d-ml&amp;otpToken=MTQwZDFhZTgxNDI5Y2RjN2JkMjQwNGVkNDUxN2UzYjI4ZmNmZDE0NDk5YWQ4ZTYxNzZjNzA5Njg0YTUzNWZmYWYwZDRkZmI3NTRmM2M3ZDgwMDk5ZmUyZDhiNmMyMjM0YWMyN2YxZTNlNGJjMzg0OTkzNzE1MCwxLDE%3D      
+----------------------------------------
+This email was intended for Kumar Shresth (Pre-Final Year || AI/ML Enthusiast || Next.js || MERN)
+Learn why we included this: https://www.linkedin.com/help/linkedin/answer/4788?lang=en&amp;lipi=urn%3Ali%3Apage%3Aemail_b2_professional_identity_digest_02%3Bt2WWjaCfTXKLn%2F1WY7R0uA%3D%3D&amp;midToken=AQHfy-KX1wg9GQ&amp;midSig=21KYzun0QpnHE1&amp;trk=eml-b2_professional_identity_digest_02-SecurityHelp-0-textfooterglimmer&amp;trkEmail=eml-b2_professional_identity_digest_02-SecurityHelp-0-textfooterglimmer-null-bbr33j~m73hmy0d~ml-null-null&amp;eid=bbr33j-m73hmy0d-ml&amp;otpToken=MTQwZDFhZTgxNDI5Y2RjN2JkMjQwNGVkNDUxN2UzYjI4ZmNmZDE0NDk5YWQ4ZTYxNzZjNzA5Njg0YTUzNWZmYWYwZDRkZmI3NTRmM2M3ZDgwMDk5ZmUyZDhiNmMyMjM0YWMyN2YxZTNlNGJjMzg0OTkzNzE1MCwxLDE%3D
+You are receiving LinkedIn notification emails.
+Unsubscribe: https://www.linkedin.com/comm/psettings/email-unsubscribe?lipi=urn%3Ali%3Apage%3Aemail_b2_professional_identity_digest_02%3Bt2WWjaCfTXKLn%2F1WY7R0uA%3D%3D&amp;midToken=AQHfy-KX1wg9GQ&amp;midSig=21KYzun0QpnHE1&amp;trk=eml-b2_professional_identity_digest_02-unsubscribe-0-textfooterglimmer&amp;trkEmail=eml-b2_professional_identity_digest_02-unsubscribe-0-textfooterglimmer-null-bbr33j~m73hmy0d~ml-null-null&amp;eid=bbr33j-m73hmy0d-ml&amp;loid=AQFVX7iS5cBp7QAAAZT_5vpAaqRtB1zwqNxwZJ7Z4NQXpUQiuI_PGM_pqEFQOOe2usbI5xTBJw1vIWyGRj2NPvZWm3DjCGuO_IAEaHDLq2nD7_-eplDU
+Help: https://www.linkedin.com/help/linkedin/answer/67?lang=en&amp;lipi=urn%3Ali%3Apage%3Aemail_b2_professional_identity_digest_02%3Bt2WWjaCfTXKLn%2F1WY7R0uA%3D%3D&amp;midToken=AQHfy-KX1wg9GQ&amp;midSig=21KYzun0QpnHE1&amp;trk=eml-b2_professional_identity_digest_02-help-0-textfooterglimmer&amp;trkEmail=eml-b2_professional_identity_digest_02-help-0-textfooterglimmer-null-bbr33j~m73hmy0d~ml-null-null&amp;eid=bbr33j-m73hmy0d-ml&amp;otpToken=MTQwZDFhZTgxNDI5Y2RjN2JkMjQwNGVkNDUxN2UzYjI4ZmNmZDE0NDk5YWQ4ZTYxNzZjNzA5Njg0YTUzNWZmYWYwZDRkZmI3NTRmM2M3ZDgwMDk5ZmUyZDhiNmMyMjM0YWMyN2YxZTNlNGJjMzg0OTkzNzE1MCwxLDE%3D
+© 2025 LinkedIn Corporation, 1zwnj000 West Maude Avenue, Sunnyvale, CA 94085.
+LinkedIn and the LinkedIn logo are registered trademarks of LinkedIn.</x:t>
   </x:si>
 </x:sst>
 </file>
